--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-07-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-location.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-location.xlsx
@@ -820,7 +820,7 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
 </t>
   </si>
   <si>
@@ -845,7 +845,7 @@
     <t>Location.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
 </t>
   </si>
   <si>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="294">
   <si>
     <t>Property</t>
   </si>
@@ -574,10 +574,6 @@
 場所の説明。場所の検索や参照に役立つ。</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-FHIR文字列はサイズが1MBを超えてはならないことに注意すること</t>
-  </si>
-  <si>
     <t>Humans need additional information to verify a correct location has been identified.
 人間は、正しい場所が特定されたことを確認するために追加情報を必要とする。</t>
   </si>
@@ -856,7 +852,7 @@
 この場所が物理的に存在するもう一つの場所。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
@@ -2951,10 +2947,10 @@
         <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -3018,7 +3014,7 @@
         <v>94</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
@@ -3026,7 +3022,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3052,16 +3048,16 @@
         <v>102</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -3089,11 +3085,11 @@
         <v>150</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>74</v>
       </c>
@@ -3110,7 +3106,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3125,15 +3121,15 @@
         <v>94</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3156,16 +3152,16 @@
         <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3191,14 +3187,14 @@
         <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="X18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="Y18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="Z18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3215,7 +3211,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3230,15 +3226,15 @@
         <v>94</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3261,13 +3257,13 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3318,7 +3314,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3333,7 +3329,7 @@
         <v>94</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
@@ -3341,7 +3337,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3364,19 +3360,19 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>74</v>
@@ -3425,7 +3421,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3440,7 +3436,7 @@
         <v>94</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
@@ -3448,7 +3444,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3471,19 +3467,19 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>74</v>
@@ -3508,14 +3504,14 @@
         <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="Z21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3532,7 +3528,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3547,15 +3543,15 @@
         <v>94</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3578,17 +3574,17 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>74</v>
@@ -3637,7 +3633,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3652,7 +3648,7 @@
         <v>94</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
@@ -3660,7 +3656,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3686,10 +3682,10 @@
         <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3740,7 +3736,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3763,7 +3759,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3792,7 +3788,7 @@
         <v>129</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>131</v>
@@ -3845,7 +3841,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -3868,11 +3864,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3894,10 +3890,10 @@
         <v>128</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>131</v>
@@ -3952,7 +3948,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -3975,7 +3971,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3998,16 +3994,16 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4057,7 +4053,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>82</v>
@@ -4072,7 +4068,7 @@
         <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4080,7 +4076,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4103,16 +4099,16 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4162,7 +4158,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>82</v>
@@ -4177,7 +4173,7 @@
         <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4185,7 +4181,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4208,16 +4204,16 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4267,7 +4263,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4282,7 +4278,7 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>74</v>
@@ -4290,7 +4286,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4313,19 +4309,19 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
@@ -4374,7 +4370,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4389,7 +4385,7 @@
         <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
@@ -4397,7 +4393,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4420,19 +4416,19 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
@@ -4481,7 +4477,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4496,7 +4492,7 @@
         <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
@@ -4504,7 +4500,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4527,16 +4523,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4586,7 +4582,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4601,7 +4597,7 @@
         <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
@@ -4609,7 +4605,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4635,10 +4631,10 @@
         <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4689,7 +4685,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -4712,7 +4708,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4741,7 +4737,7 @@
         <v>129</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>131</v>
@@ -4794,7 +4790,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -4817,11 +4813,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4843,10 +4839,10 @@
         <v>128</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>131</v>
@@ -4901,7 +4897,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -4924,7 +4920,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4950,13 +4946,13 @@
         <v>102</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4985,11 +4981,11 @@
         <v>150</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>74</v>
       </c>
@@ -5006,7 +5002,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5021,7 +5017,7 @@
         <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5029,7 +5025,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5052,13 +5048,13 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5109,7 +5105,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5124,7 +5120,7 @@
         <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5132,7 +5128,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5155,13 +5151,13 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5212,7 +5208,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5227,7 +5223,7 @@
         <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -5235,7 +5231,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5258,13 +5254,13 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5315,7 +5311,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5330,7 +5326,7 @@
         <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -5338,7 +5334,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5364,10 +5360,10 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5418,7 +5414,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -5441,7 +5437,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5464,19 +5460,19 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>74</v>
@@ -5525,7 +5521,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="295">
   <si>
     <t>Property</t>
   </si>
@@ -269,265 +269,269 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Location.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Location.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Location.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Location.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Location.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Location.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Location.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Location.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Unique code or number identifying the location to its users / ユーザーに場所を特定する一意のコードまたは番号</t>
+  </si>
+  <si>
+    <t>Unique code or number identifying the location to its users.
+ユーザーに場所を特定する一意のコードまたは番号</t>
+  </si>
+  <si>
+    <t>Organization label locations in registries, need to keep track of those.
+登記内の組織ラベルの場所。これらを追跡する必要がある。</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Location.status</t>
+  </si>
+  <si>
+    <t>active | suspended | inactive / アクティブ|中断|非アクティブ</t>
+  </si>
+  <si>
+    <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.
+statusプロパティは、operationStatus、またはロケーションに構成されている場合はスケジュール/スロットによってカバーされる可能性がある現在の値ではなく、リソースの一般的な可用性をカバーする。</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
+FHIR文字列はサイズが1MBを超えてはならないことに注意すること</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Indicates whether the location is still in use.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Location.operationalStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>The operational status of the location (typically only for a bed/room) / ロケーションの運用ステータス（通常、ベッド/部屋のみ）</t>
+  </si>
+  <si>
+    <t>The operational status covers operation values most relevant to beds (but can also apply to rooms/units/chairs/etc. such as an isolation unit/dialysis chair). This typically covers concepts such as contamination, housekeeping, and other activities like maintenance.
+稼働状況には、ベッドに最も関連する稼働値が含まれる（ただし、隔離ユニット/透析椅子などの部屋/ユニット/椅子などにも適用できる）。これは通常、汚染、ハウスキーピング、およびメンテナンスなどの他のアクティビティなどの概念をカバーしている。</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.
+コードは、SNOMED CTなどの非常に形式的な定義まで、列挙またはコードリストで非常にカジュアルに定義できる。詳細については、HL7 v3コア原則を参照すること。</t>
+  </si>
+  <si>
+    <t>The operational status if the location (where typically a bed/room).</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Location.name</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Location.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Location.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Location.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Location.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Location.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Location.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Location.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Location.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Unique code or number identifying the location to its users / ユーザーに場所を特定する一意のコードまたは番号</t>
-  </si>
-  <si>
-    <t>Unique code or number identifying the location to its users.
-ユーザーに場所を特定する一意のコードまたは番号</t>
-  </si>
-  <si>
-    <t>Organization label locations in registries, need to keep track of those.
-登記内の組織ラベルの場所。これらを追跡する必要がある。</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Location.status</t>
-  </si>
-  <si>
-    <t>active | suspended | inactive / アクティブ|中断|非アクティブ</t>
-  </si>
-  <si>
-    <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.
-statusプロパティは、operationStatus、またはロケーションに構成されている場合はスケジュール/スロットによってカバーされる可能性がある現在の値ではなく、リソースの一般的な可用性をカバーする。</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size
-FHIR文字列はサイズが1MBを超えてはならないことに注意すること</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Indicates whether the location is still in use.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Location.operationalStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>The operational status of the location (typically only for a bed/room) / ロケーションの運用ステータス（通常、ベッド/部屋のみ）</t>
-  </si>
-  <si>
-    <t>The operational status covers operation values most relevant to beds (but can also apply to rooms/units/chairs/etc. such as an isolation unit/dialysis chair). This typically covers concepts such as contamination, housekeeping, and other activities like maintenance.
-稼働状況には、ベッドに最も関連する稼働値が含まれる（ただし、隔離ユニット/透析椅子などの部屋/ユニット/椅子などにも適用できる）。これは通常、汚染、ハウスキーピング、およびメンテナンスなどの他のアクティビティなどの概念をカバーしている。</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.
-コードは、SNOMED CTなどの非常に形式的な定義まで、列挙またはコードリストで非常にカジュアルに定義できる。詳細については、HL7 v3コア原則を参照すること。</t>
-  </si>
-  <si>
-    <t>The operational status if the location (where typically a bed/room).</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Location.name</t>
   </si>
   <si>
     <t>Name of the location as used by humans / 人間が使用する場所の名前</t>
@@ -2726,16 +2730,16 @@
         <v>83</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2800,7 +2804,7 @@
         <v>94</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>74</v>
@@ -2808,7 +2812,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2831,19 +2835,19 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -2892,7 +2896,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -2907,7 +2911,7 @@
         <v>94</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>74</v>
@@ -2915,7 +2919,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2938,19 +2942,19 @@
         <v>83</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>149</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -2999,7 +3003,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3014,7 +3018,7 @@
         <v>94</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>74</v>
@@ -3022,7 +3026,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3048,16 +3052,16 @@
         <v>102</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -3085,10 +3089,10 @@
         <v>150</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>74</v>
@@ -3106,7 +3110,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3121,15 +3125,15 @@
         <v>94</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3152,16 +3156,16 @@
         <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3187,13 +3191,13 @@
         <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>74</v>
@@ -3211,7 +3215,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3226,15 +3230,15 @@
         <v>94</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3257,13 +3261,13 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3314,7 +3318,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3329,7 +3333,7 @@
         <v>94</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>74</v>
@@ -3337,7 +3341,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3360,19 +3364,19 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>74</v>
@@ -3421,7 +3425,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3436,7 +3440,7 @@
         <v>94</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
@@ -3444,7 +3448,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3467,19 +3471,19 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>74</v>
@@ -3504,13 +3508,13 @@
         <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>74</v>
@@ -3528,7 +3532,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3543,15 +3547,15 @@
         <v>94</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3574,17 +3578,17 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>74</v>
@@ -3633,7 +3637,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3648,7 +3652,7 @@
         <v>94</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
@@ -3656,7 +3660,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3679,13 +3683,13 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3736,7 +3740,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3759,7 +3763,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3788,7 +3792,7 @@
         <v>129</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>131</v>
@@ -3841,7 +3845,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -3864,11 +3868,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3890,10 +3894,10 @@
         <v>128</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>131</v>
@@ -3948,7 +3952,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -3971,7 +3975,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3994,16 +3998,16 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4053,7 +4057,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>82</v>
@@ -4068,7 +4072,7 @@
         <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4076,7 +4080,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4099,16 +4103,16 @@
         <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4158,7 +4162,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>82</v>
@@ -4173,7 +4177,7 @@
         <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4181,7 +4185,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4204,16 +4208,16 @@
         <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4263,7 +4267,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4278,7 +4282,7 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>74</v>
@@ -4286,7 +4290,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4309,19 +4313,19 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>74</v>
@@ -4370,7 +4374,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4385,7 +4389,7 @@
         <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
@@ -4393,7 +4397,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4416,19 +4420,19 @@
         <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
@@ -4477,7 +4481,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4492,7 +4496,7 @@
         <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
@@ -4500,7 +4504,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4523,16 +4527,16 @@
         <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4582,7 +4586,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4597,7 +4601,7 @@
         <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
@@ -4605,7 +4609,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4628,13 +4632,13 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4685,7 +4689,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -4708,7 +4712,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4737,7 +4741,7 @@
         <v>129</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>131</v>
@@ -4790,7 +4794,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -4813,11 +4817,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4839,10 +4843,10 @@
         <v>128</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>131</v>
@@ -4897,7 +4901,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -4920,7 +4924,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4946,13 +4950,13 @@
         <v>102</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4981,10 +4985,10 @@
         <v>150</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>74</v>
@@ -5002,7 +5006,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5017,7 +5021,7 @@
         <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5025,7 +5029,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5048,13 +5052,13 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5105,7 +5109,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5120,7 +5124,7 @@
         <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5128,7 +5132,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5151,13 +5155,13 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5208,7 +5212,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5223,7 +5227,7 @@
         <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -5231,7 +5235,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5254,13 +5258,13 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5311,7 +5315,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5326,7 +5330,7 @@
         <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -5334,7 +5338,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5357,13 +5361,13 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5414,7 +5418,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -5437,7 +5441,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5460,19 +5464,19 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>74</v>
@@ -5521,7 +5525,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -454,11 +454,11 @@
 </t>
   </si>
   <si>
-    <t>Unique code or number identifying the location to its users / ユーザーに場所を特定する一意のコードまたは番号</t>
+    <t>Unique code or number identifying the location to its users / ユーザに場所を特定する一意のコードまたは番号</t>
   </si>
   <si>
     <t>Unique code or number identifying the location to its users.
-ユーザーに場所を特定する一意のコードまたは番号</t>
+ユーザに場所を特定する一意のコードまたは番号</t>
   </si>
   <si>
     <t>Organization label locations in registries, need to keep track of those.
@@ -870,7 +870,7 @@
     <t>Location.hoursOfOperation</t>
   </si>
   <si>
-    <t>What days/times during a week is this location usually open / この場所は通常、1週間のうち何日/時間帯に営業している。</t>
+    <t>What days/times during a week is this location usually open / この場所は通常、1週間のうち何日/時間帯に営業している</t>
   </si>
   <si>
     <t>What days/times during a week is this location usually open.
@@ -956,7 +956,7 @@
     <t>Location.availabilityExceptions</t>
   </si>
   <si>
-    <t>Description of availability exceptions / 利用可能の例外についての説明。</t>
+    <t>Description of availability exceptions / 利用可能の例外についての説明</t>
   </si>
   <si>
     <t>A description of when the locations opening ours are different to normal, e.g. public holiday availability. Succinctly describing all possible exceptions to normal site availability as detailed in the opening hours Times.

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-location.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -251,10 +254,6 @@
   <si>
     <t>Details and position information for a physical place where services are provided and resources and participants may be stored, found, contained, or accommodated.
 サービスが提供され、リソースとそれに関わる人たちが存在する物理的な場所の詳細情報と位置情報。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>.Role[classCode=SDLC]</t>
@@ -1228,55 +1227,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1336,218 +1335,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -1556,20 +1555,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>83</v>
@@ -1588,71 +1587,71 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
@@ -1661,20 +1660,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>83</v>
@@ -1691,71 +1690,71 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1764,17 +1763,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>83</v>
@@ -1796,71 +1795,71 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -1869,23 +1868,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>102</v>
@@ -1901,26 +1900,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>106</v>
@@ -1932,40 +1931,40 @@
         <v>108</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1978,19 +1977,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>112</v>
@@ -2006,62 +2005,62 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>116</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>94</v>
@@ -2070,7 +2069,7 @@
         <v>117</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -2083,19 +2082,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>120</v>
@@ -2111,71 +2110,71 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>124</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>125</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
@@ -2188,19 +2187,19 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>128</v>
@@ -2216,62 +2215,62 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>133</v>
@@ -2280,7 +2279,7 @@
         <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -2293,19 +2292,19 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>128</v>
@@ -2323,62 +2322,62 @@
         <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>133</v>
@@ -2387,7 +2386,7 @@
         <v>125</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -2396,20 +2395,20 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>83</v>
@@ -2428,62 +2427,62 @@
         <v>143</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>94</v>
@@ -2501,17 +2500,17 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>83</v>
@@ -2533,26 +2532,26 @@
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
         <v>150</v>
@@ -2564,31 +2563,31 @@
         <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>146</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>94</v>
@@ -2606,20 +2605,20 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>83</v>
@@ -2638,26 +2637,26 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
         <v>106</v>
@@ -2669,31 +2668,31 @@
         <v>161</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>155</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>94</v>
@@ -2711,20 +2710,20 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>83</v>
@@ -2743,62 +2742,62 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>163</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>94</v>
@@ -2807,7 +2806,7 @@
         <v>168</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -2816,23 +2815,23 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>164</v>
@@ -2850,62 +2849,62 @@
         <v>173</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>94</v>
@@ -2914,7 +2913,7 @@
         <v>168</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -2923,20 +2922,20 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>83</v>
@@ -2957,62 +2956,62 @@
         <v>177</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>174</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>94</v>
@@ -3021,7 +3020,7 @@
         <v>178</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -3030,20 +3029,20 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>83</v>
@@ -3064,26 +3063,26 @@
         <v>183</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>150</v>
@@ -3095,31 +3094,31 @@
         <v>185</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>179</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>94</v>
@@ -3137,20 +3136,20 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>83</v>
@@ -3169,26 +3168,26 @@
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s" s="2">
         <v>193</v>
@@ -3200,31 +3199,31 @@
         <v>195</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>188</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>94</v>
@@ -3242,23 +3241,23 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>198</v>
@@ -3272,62 +3271,62 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>197</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>94</v>
@@ -3336,7 +3335,7 @@
         <v>201</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
@@ -3345,23 +3344,23 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>203</v>
@@ -3379,62 +3378,62 @@
         <v>207</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>94</v>
@@ -3443,7 +3442,7 @@
         <v>208</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -3452,20 +3451,20 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>83</v>
@@ -3486,26 +3485,26 @@
         <v>213</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W21" t="s" s="2">
         <v>214</v>
@@ -3517,31 +3516,31 @@
         <v>216</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>209</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>94</v>
@@ -3559,23 +3558,23 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>219</v>
@@ -3591,62 +3590,62 @@
         <v>222</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>218</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>94</v>
@@ -3655,7 +3654,7 @@
         <v>223</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
@@ -3664,23 +3663,23 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>164</v>
@@ -3694,71 +3693,71 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>227</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>162</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
@@ -3771,19 +3770,19 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>128</v>
@@ -3799,62 +3798,62 @@
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>230</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>133</v>
@@ -3863,7 +3862,7 @@
         <v>162</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25">
@@ -3876,13 +3875,13 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>83</v>
@@ -3906,62 +3905,62 @@
         <v>137</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>235</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>133</v>
@@ -3970,7 +3969,7 @@
         <v>125</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
@@ -3979,7 +3978,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -3989,13 +3988,13 @@
         <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>237</v>
@@ -4011,50 +4010,50 @@
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>236</v>
@@ -4066,7 +4065,7 @@
         <v>82</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>94</v>
@@ -4075,7 +4074,7 @@
         <v>241</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
@@ -4084,7 +4083,7 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4094,13 +4093,13 @@
         <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>237</v>
@@ -4116,50 +4115,50 @@
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>242</v>
@@ -4171,7 +4170,7 @@
         <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>94</v>
@@ -4180,7 +4179,7 @@
         <v>241</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
@@ -4189,23 +4188,23 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>237</v>
@@ -4221,62 +4220,62 @@
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>245</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>94</v>
@@ -4285,7 +4284,7 @@
         <v>241</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29">
@@ -4294,20 +4293,20 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>83</v>
@@ -4328,62 +4327,62 @@
         <v>253</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>248</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>94</v>
@@ -4392,7 +4391,7 @@
         <v>254</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30">
@@ -4401,23 +4400,23 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>256</v>
@@ -4435,62 +4434,62 @@
         <v>260</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>255</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>94</v>
@@ -4499,7 +4498,7 @@
         <v>261</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
@@ -4508,23 +4507,23 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>219</v>
@@ -4540,62 +4539,62 @@
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>262</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>94</v>
@@ -4604,7 +4603,7 @@
         <v>266</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32">
@@ -4613,23 +4612,23 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>164</v>
@@ -4643,71 +4642,71 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>227</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>162</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33">
@@ -4720,19 +4719,19 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>128</v>
@@ -4748,62 +4747,62 @@
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>230</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>133</v>
@@ -4812,7 +4811,7 @@
         <v>162</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34">
@@ -4825,13 +4824,13 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>83</v>
@@ -4855,62 +4854,62 @@
         <v>137</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>235</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>133</v>
@@ -4919,7 +4918,7 @@
         <v>125</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35">
@@ -4928,23 +4927,23 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>102</v>
@@ -4960,26 +4959,26 @@
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W35" t="s" s="2">
         <v>150</v>
@@ -4991,31 +4990,31 @@
         <v>275</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>270</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>94</v>
@@ -5024,7 +5023,7 @@
         <v>266</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
@@ -5033,23 +5032,23 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>277</v>
@@ -5063,62 +5062,62 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>276</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>94</v>
@@ -5127,7 +5126,7 @@
         <v>266</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37">
@@ -5136,23 +5135,23 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>281</v>
@@ -5166,62 +5165,62 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>280</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>94</v>
@@ -5230,7 +5229,7 @@
         <v>266</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38">
@@ -5239,23 +5238,23 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>281</v>
@@ -5269,62 +5268,62 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>284</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>94</v>
@@ -5333,7 +5332,7 @@
         <v>266</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39">
@@ -5342,23 +5341,23 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>164</v>
@@ -5372,62 +5371,62 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>287</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>94</v>
@@ -5436,7 +5435,7 @@
         <v>162</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40">
@@ -5445,23 +5444,23 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>291</v>
@@ -5479,62 +5478,62 @@
         <v>294</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>290</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>94</v>
@@ -5543,7 +5542,7 @@
         <v>162</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
